--- a/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 28\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 29\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="ar_ae" sheetId="25" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>http://www.cisco.com/web/JP/product/hs/wireless/services.html</t>
   </si>
   <si>
-    <t>rservice-listing-var1</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/ar/products/uc/services.html</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/BE/fr/products/uc/services.html</t>
+  </si>
+  <si>
+    <t>service-listing-Rvar1</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -967,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1449,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1529,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1675,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1742,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1770,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1804,7 +1804,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1931,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2011,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2077,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2171,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2251,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2317,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2331,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2383,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2411,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2543,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2717,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2731,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -2784,7 +2784,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2798,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2812,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2864,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2878,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2892,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2944,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2958,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2972,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3038,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3052,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3104,7 +3104,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3118,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3184,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3278,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3292,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3358,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3452,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3518,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3532,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3584,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3598,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3612,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3665,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3725,10 +3725,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3766,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3794,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3875,7 +3875,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3927,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3941,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3955,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -4008,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4036,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -4070,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4089,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4117,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>

--- a/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ar_ae" sheetId="25" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="165">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/routers/services.html</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t>service-listing-Rvar1</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/routers/services_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/switches/services_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/wireless/services_fr.html</t>
   </si>
 </sst>
 </file>
@@ -920,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1403,7 +1412,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,8 +1423,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+      <c r="A1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1428,8 +1437,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="A2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1442,8 +1451,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1468,11 +1477,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1482,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,8 +1503,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1508,8 +1517,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1522,8 +1531,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+      <c r="A3" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1548,11 +1557,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_RServiceListing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 29\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW-jan8\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ar_ae" sheetId="25" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="167">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/routers/services.html</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CA/products/wireless/services_fr.html</t>
+  </si>
+  <si>
+    <t>service-listing-Rvar2</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/unified_computing/services.html</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +995,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1019,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1078,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1103,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,6 +1162,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1187,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,6 +1246,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,6 +1329,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1353,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1412,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,6 +1495,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1578,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1602,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,6 +1661,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1685,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1744,9 @@
       <c r="B4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1733,7 +1768,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,6 +1827,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +1851,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1910,9 @@
       <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1894,7 +1934,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1993,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +2017,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,6 +2076,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2100,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,6 +2159,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2183,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2242,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2266,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,6 +2325,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2293,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,6 +2408,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2432,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,6 +2491,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2515,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,6 +2574,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2534,13 +2598,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2572,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -2592,6 +2656,9 @@
       </c>
       <c r="B4" t="s">
         <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2614,7 +2681,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,6 +2740,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +2764,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2823,9 @@
       <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +2847,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,6 +2906,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2854,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,6 +2989,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +3013,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,6 +3072,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3096,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,6 +3155,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3095,7 +3179,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,6 +3238,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3174,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,6 +3321,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3254,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,6 +3404,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3335,7 +3428,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,6 +3487,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3511,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,6 +3570,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3495,7 +3594,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,6 +3653,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3572,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,11 +3729,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3642,7 +3760,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,6 +3819,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +3843,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3878,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,7 +3937,9 @@
       <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +3961,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,6 +4020,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -3918,7 +4044,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,7 +4103,9 @@
       <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4127,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4186,9 @@
       <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +4210,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,6 +4269,9 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
